--- a/Input_template - Test.xlsx
+++ b/Input_template - Test.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>Locator</t>
   </si>
@@ -440,12 +440,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#\ \m"/>
-    <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="#\ \m"/>
+    <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +480,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +511,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,9 +651,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -675,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -696,16 +710,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,6 +766,10 @@
     <cellStyle name="Normal 3 2" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -803,25 +833,21 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -860,28 +886,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C39" totalsRowShown="0">
-  <autoFilter ref="A1:C39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C50" totalsRowShown="0">
+  <autoFilter ref="A1:C50"/>
   <tableColumns count="3">
     <tableColumn id="1" name="From (incl)" dataDxfId="13"/>
     <tableColumn id="3" name="To (excl)" dataDxfId="12">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="TRH" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="TRH" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Variables" displayName="Variables" ref="A1:C38" totalsRowShown="0">
-  <autoFilter ref="A1:C38"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Baseline6" displayName="Baseline6" ref="A1:B2" totalsRowShown="0" dataDxfId="9">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="From (incl)" dataDxfId="10"/>
-    <tableColumn id="3" name="To (excl)" dataDxfId="9">
-      <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="TRH" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="To (excl)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1642,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1685,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1672,7 +1695,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -1683,7 +1706,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="31"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
@@ -1691,7 +1714,7 @@
         <v>108</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="G3" s="25"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1700,7 +1723,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="10" t="s">
         <v>102</v>
       </c>
@@ -1708,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1717,7 +1740,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="10" t="s">
         <v>103</v>
       </c>
@@ -1725,7 +1748,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="15" t="s">
         <v>2</v>
       </c>
@@ -1737,7 +1760,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="10" t="s">
         <v>99</v>
       </c>
@@ -1745,7 +1768,7 @@
         <v>2003</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="16" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1777,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="10" t="s">
         <v>54</v>
       </c>
@@ -1766,7 +1789,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="10" t="s">
         <v>56</v>
       </c>
@@ -1778,7 +1801,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="10" t="s">
         <v>91</v>
       </c>
@@ -1788,7 +1811,7 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +1821,7 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="10" t="s">
         <v>58</v>
       </c>
@@ -1808,7 +1831,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
@@ -1818,7 +1841,7 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1828,7 +1851,7 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="32"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
@@ -1839,7 +1862,7 @@
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1851,7 +1874,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="10" t="s">
         <v>106</v>
       </c>
@@ -1861,7 +1884,7 @@
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="10" t="s">
         <v>64</v>
       </c>
@@ -1871,7 +1894,7 @@
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10" t="s">
         <v>65</v>
       </c>
@@ -1883,7 +1906,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>104</v>
       </c>
@@ -1894,7 +1917,7 @@
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10" t="s">
         <v>107</v>
       </c>
@@ -1907,7 +1930,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="10" t="s">
         <v>92</v>
       </c>
@@ -1918,7 +1941,7 @@
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="11" t="s">
         <v>98</v>
       </c>
@@ -1937,42 +1960,42 @@
     <mergeCell ref="B2:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I3">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>IF(#REF!="City",FALSE,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I6 E23 D22">
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>IF(#REF!="Coordinates",FALSE,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8 D2:D14">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>ISBLANK(D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D20">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>ISBLANK(D18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>ISBLANK(E19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISBLANK(D16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISBLANK(D21)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2034,13 +2057,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Baseline!$A$2:$A$39</xm:f>
+            <xm:f>Baseline!$A$2:$A$35</xm:f>
           </x14:formula1>
           <xm:sqref>D16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Baseline!$B$2:$B$39</xm:f>
+            <xm:f>Baseline!$B$2:$B$35</xm:f>
           </x14:formula1>
           <xm:sqref>D17</xm:sqref>
         </x14:dataValidation>
@@ -2052,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2104,7 @@
         <v>43101</v>
       </c>
       <c r="B2" s="1">
-        <f t="shared" ref="B2:B38" si="0">IF(ISBLANK(A3),"",A3)</f>
+        <f t="shared" ref="B2:B34" si="0">IF(ISBLANK(A3),"",A3)</f>
         <v>43132</v>
       </c>
       <c r="C2" s="23">
@@ -2477,7 +2500,7 @@
         <v>44105</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(A36),"",A36)</f>
         <v>44136</v>
       </c>
       <c r="C35" s="23">
@@ -2485,47 +2508,171 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="25">
         <v>44136</v>
       </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
+      <c r="B36" s="25">
+        <f>IF(ISBLANK(A37),"",A37)</f>
         <v>44166</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="26">
         <v>744068.4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="24">
         <v>44166</v>
       </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
+      <c r="B37" s="24">
+        <f>IF(ISBLANK(A38),"",A38)</f>
         <v>44197</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="27">
         <v>642383.1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="25">
         <v>44197</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
+      <c r="B38" s="25">
         <v>44228</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="26">
         <v>643473.30000000005</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="28">
         <v>44228</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="28">
+        <v>44256</v>
+      </c>
+      <c r="C39" s="29">
+        <v>878977.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="25">
+        <v>44256</v>
+      </c>
+      <c r="B40" s="25">
+        <v>44287</v>
+      </c>
+      <c r="C40" s="26">
+        <v>1114481.1000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>44287</v>
+      </c>
+      <c r="B41" s="28">
+        <v>44317</v>
+      </c>
+      <c r="C41" s="29">
+        <v>1349985</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>44317</v>
+      </c>
+      <c r="B42" s="25">
+        <v>44348</v>
+      </c>
+      <c r="C42" s="26">
+        <v>1585488.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>44348</v>
+      </c>
+      <c r="B43" s="28">
+        <v>44378</v>
+      </c>
+      <c r="C43" s="29">
+        <v>1820992.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>44378</v>
+      </c>
+      <c r="B44" s="25">
+        <v>44409</v>
+      </c>
+      <c r="C44" s="26">
+        <v>2056496.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="28">
+        <v>44409</v>
+      </c>
+      <c r="B45" s="28">
+        <v>44440</v>
+      </c>
+      <c r="C45" s="29">
+        <v>2292000.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="25">
+        <v>44440</v>
+      </c>
+      <c r="B46" s="25">
+        <v>44470</v>
+      </c>
+      <c r="C46" s="26">
+        <v>2527504.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="28">
+        <v>44470</v>
+      </c>
+      <c r="B47" s="28">
+        <v>44501</v>
+      </c>
+      <c r="C47" s="29">
+        <v>2763008.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="25">
+        <v>44501</v>
+      </c>
+      <c r="B48" s="25">
+        <v>44531</v>
+      </c>
+      <c r="C48" s="26">
+        <v>2998512.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>44531</v>
+      </c>
+      <c r="B49" s="28">
+        <v>44562</v>
+      </c>
+      <c r="C49" s="29">
+        <v>3234016.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="25">
+        <v>44562</v>
+      </c>
+      <c r="B50" s="25">
+        <v>44593</v>
+      </c>
+      <c r="C50" s="26">
+        <v>3469520.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2538,477 +2685,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43101</v>
-      </c>
-      <c r="B2" s="1">
-        <f t="shared" ref="B2:B37" si="0">IF(ISBLANK(A3),"",A3)</f>
-        <v>43132</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43132</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" si="0"/>
-        <v>43160</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43160</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>43191</v>
-      </c>
-      <c r="C4">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>43191</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>43221</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>43221</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>43252</v>
-      </c>
-      <c r="C6">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>43282</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>43282</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>43313</v>
-      </c>
-      <c r="C8">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43313</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>43344</v>
-      </c>
-      <c r="C9">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B10" s="1">
-        <f>IF(ISBLANK(A11),"",A11)</f>
-        <v>43374</v>
-      </c>
-      <c r="C10">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43374</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>43405</v>
-      </c>
-      <c r="C11">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>43435</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>43466</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>43466</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>43497</v>
-      </c>
-      <c r="C14">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>43497</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>43525</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>43525</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>43556</v>
-      </c>
-      <c r="C16">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>43586</v>
-      </c>
-      <c r="C17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>43617</v>
-      </c>
-      <c r="C18">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>43647</v>
-      </c>
-      <c r="C19">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>43678</v>
-      </c>
-      <c r="C20">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>43709</v>
-      </c>
-      <c r="C21">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43709</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>43739</v>
-      </c>
-      <c r="C22">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>43770</v>
-      </c>
-      <c r="C23">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43770</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>43800</v>
-      </c>
-      <c r="C24">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>43831</v>
-      </c>
-      <c r="C25">
-        <v>15451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>43862</v>
-      </c>
-      <c r="C26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43862</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>43891</v>
-      </c>
-      <c r="C27">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>43922</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43922</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>43952</v>
-      </c>
-      <c r="C29">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>43983</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43983</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>44013</v>
-      </c>
-      <c r="C31">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44013</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>44044</v>
-      </c>
-      <c r="C32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44044</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>44075</v>
-      </c>
-      <c r="C33">
-        <v>4656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>44105</v>
-      </c>
-      <c r="C34">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44105</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>44136</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>44166</v>
-      </c>
-      <c r="C36">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44166</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>44197</v>
-      </c>
-      <c r="C37">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B38" s="1">
-        <v>44228</v>
-      </c>
-      <c r="C38">
-        <v>456</v>
-      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>